--- a/test_cleaned.xlsx
+++ b/test_cleaned.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I956"/>
+  <dimension ref="A1:J956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>label_text_image</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>anomaly</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -525,6 +530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -570,6 +578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -615,6 +626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -660,6 +674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -705,6 +722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -750,6 +770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -795,6 +818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -840,6 +866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -885,6 +914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -930,6 +962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -975,6 +1010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1020,6 +1058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1065,6 +1106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1110,6 +1154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1155,6 +1202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1200,6 +1250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1245,6 +1298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1290,6 +1346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1335,6 +1394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1380,6 +1442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1425,6 +1490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1470,6 +1538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1515,6 +1586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1560,6 +1634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1605,6 +1682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1650,6 +1730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1695,6 +1778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1740,6 +1826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1785,6 +1874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1830,6 +1922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1875,6 +1970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1920,6 +2018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1965,6 +2066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2010,6 +2114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2055,6 +2162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2100,6 +2210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2145,6 +2258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2190,6 +2306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2235,6 +2354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2280,6 +2402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2325,6 +2450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2370,6 +2498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2415,6 +2546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2460,6 +2594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2505,6 +2642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2550,6 +2690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2595,6 +2738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2640,6 +2786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2685,6 +2834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2730,6 +2882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2775,6 +2930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2820,6 +2978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2865,6 +3026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2910,6 +3074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2955,6 +3122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3000,6 +3170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3045,6 +3218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3090,6 +3266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3135,6 +3314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3180,6 +3362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3225,6 +3410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3270,6 +3458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3315,6 +3506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3360,6 +3554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3405,6 +3602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3450,6 +3650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3495,6 +3698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3540,6 +3746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3585,6 +3794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3630,6 +3842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3675,6 +3890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3720,6 +3938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3765,6 +3986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3810,6 +4034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3855,6 +4082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3900,6 +4130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3945,6 +4178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3990,6 +4226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4035,6 +4274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4080,6 +4322,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4125,6 +4370,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4170,6 +4418,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4215,6 +4466,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4260,6 +4514,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4305,6 +4562,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4350,6 +4610,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4395,6 +4658,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4440,6 +4706,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4485,6 +4754,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4530,6 +4802,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4575,6 +4850,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4620,6 +4898,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4665,6 +4946,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4710,6 +4994,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4755,6 +5042,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4800,6 +5090,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4845,6 +5138,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4890,6 +5186,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4935,6 +5234,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4980,6 +5282,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5025,6 +5330,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5070,6 +5378,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5115,6 +5426,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5160,6 +5474,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5205,6 +5522,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5250,6 +5570,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5295,6 +5618,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5340,6 +5666,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5385,6 +5714,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5430,6 +5762,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5475,6 +5810,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5520,6 +5858,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5565,6 +5906,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5610,6 +5954,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5655,6 +6002,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5700,6 +6050,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5745,6 +6098,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5790,6 +6146,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5835,6 +6194,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5880,6 +6242,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5925,6 +6290,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5970,6 +6338,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6015,6 +6386,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6060,6 +6434,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6105,6 +6482,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6150,6 +6530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6195,6 +6578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6240,6 +6626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6285,6 +6674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6330,6 +6722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6375,6 +6770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6420,6 +6818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6465,6 +6866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6510,6 +6914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6555,6 +6962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6600,6 +7010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6645,6 +7058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6690,6 +7106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6735,6 +7154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6780,6 +7202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6825,6 +7250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6870,6 +7298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6915,6 +7346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6960,6 +7394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7005,6 +7442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7050,6 +7490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7095,6 +7538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7140,6 +7586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7185,6 +7634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7230,6 +7682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7275,6 +7730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7320,6 +7778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7365,6 +7826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7410,6 +7874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7455,6 +7922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7500,6 +7970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7545,6 +8018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7590,6 +8066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7635,6 +8114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7680,6 +8162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7725,6 +8210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7770,6 +8258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7815,6 +8306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7860,6 +8354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7905,6 +8402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7950,6 +8450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7995,6 +8498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8040,6 +8546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8085,6 +8594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8130,6 +8642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8175,6 +8690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8220,6 +8738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8265,6 +8786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8310,6 +8834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8355,6 +8882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8400,6 +8930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8445,6 +8978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8490,6 +9026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8535,6 +9074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8580,6 +9122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8625,6 +9170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8670,6 +9218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8715,6 +9266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8760,6 +9314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8805,6 +9362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8850,6 +9410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8895,6 +9458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8940,6 +9506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8985,6 +9554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9030,6 +9602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9075,6 +9650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9120,6 +9698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9165,6 +9746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9210,6 +9794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9255,6 +9842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9300,6 +9890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9345,6 +9938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9390,6 +9986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9435,6 +10034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9480,6 +10082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9525,6 +10130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9570,6 +10178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9615,6 +10226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9660,6 +10274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9705,6 +10322,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9750,6 +10370,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9795,6 +10418,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9840,6 +10466,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9885,6 +10514,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9930,6 +10562,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9975,6 +10610,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10020,6 +10658,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10065,6 +10706,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10110,6 +10754,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -10155,6 +10802,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -10200,6 +10850,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -10245,6 +10898,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10290,6 +10946,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10335,6 +10994,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -10380,6 +11042,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -10425,6 +11090,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -10470,6 +11138,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -10515,6 +11186,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -10560,6 +11234,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -10605,6 +11282,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -10650,6 +11330,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10695,6 +11378,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10740,6 +11426,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10785,6 +11474,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10830,6 +11522,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10875,6 +11570,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10920,6 +11618,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10965,6 +11666,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -11010,6 +11714,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -11055,6 +11762,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -11100,6 +11810,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -11145,6 +11858,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -11190,6 +11906,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -11235,6 +11954,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -11280,6 +12002,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -11325,6 +12050,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -11370,6 +12098,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -11415,6 +12146,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -11460,6 +12194,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -11505,6 +12242,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -11550,6 +12290,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -11595,6 +12338,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -11640,6 +12386,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -11685,6 +12434,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -11730,6 +12482,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11775,6 +12530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11820,6 +12578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11865,6 +12626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11910,6 +12674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11955,6 +12722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -12000,6 +12770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -12045,6 +12818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -12090,6 +12866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -12135,6 +12914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -12180,6 +12962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -12225,6 +13010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -12270,6 +13058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -12315,6 +13106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -12360,6 +13154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -12405,6 +13202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -12450,6 +13250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -12495,6 +13298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -12540,6 +13346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -12585,6 +13394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -12630,6 +13442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -12675,6 +13490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12720,6 +13538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -12765,6 +13586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -12810,6 +13634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12855,6 +13682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12900,6 +13730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12945,6 +13778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12990,6 +13826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -13035,6 +13874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -13080,6 +13922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -13125,6 +13970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -13170,6 +14018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -13215,6 +14066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -13260,6 +14114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -13305,6 +14162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -13350,6 +14210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -13395,6 +14258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -13440,6 +14306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -13485,6 +14354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -13530,6 +14402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -13575,6 +14450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -13620,6 +14498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -13665,6 +14546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -13710,6 +14594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -13755,6 +14642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -13800,6 +14690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -13845,6 +14738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -13890,6 +14786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13935,6 +14834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13980,6 +14882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -14025,6 +14930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -14070,6 +14978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -14115,6 +15026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -14160,6 +15074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -14205,6 +15122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -14250,6 +15170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -14295,6 +15218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -14340,6 +15266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -14385,6 +15314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -14430,6 +15362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -14475,6 +15410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -14520,6 +15458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -14565,6 +15506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -14610,6 +15554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -14655,6 +15602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -14700,6 +15650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -14745,6 +15698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -14790,6 +15746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -14835,6 +15794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -14880,6 +15842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -14925,6 +15890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -14970,6 +15938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -15015,6 +15986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -15060,6 +16034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -15105,6 +16082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -15150,6 +16130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -15195,6 +16178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -15240,6 +16226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -15285,6 +16274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -15330,6 +16322,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -15375,6 +16370,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -15420,6 +16418,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -15465,6 +16466,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -15510,6 +16514,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -15555,6 +16562,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -15600,6 +16610,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -15645,6 +16658,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -15690,6 +16706,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -15735,6 +16754,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -15780,6 +16802,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -15825,6 +16850,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -15870,6 +16898,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -15915,6 +16946,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -15960,6 +16994,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -16005,6 +17042,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -16050,6 +17090,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -16095,6 +17138,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -16140,6 +17186,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -16185,6 +17234,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -16230,6 +17282,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -16275,6 +17330,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -16320,6 +17378,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -16365,6 +17426,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -16410,6 +17474,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -16455,6 +17522,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -16500,6 +17570,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -16545,6 +17618,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -16590,6 +17666,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -16635,6 +17714,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -16680,6 +17762,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -16725,6 +17810,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -16770,6 +17858,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -16815,6 +17906,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -16860,6 +17954,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -16905,6 +18002,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -16950,6 +18050,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J367" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -16995,6 +18098,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -17040,6 +18146,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -17085,6 +18194,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -17130,6 +18242,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -17175,6 +18290,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -17220,6 +18338,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -17265,6 +18386,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J374" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -17310,6 +18434,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -17355,6 +18482,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -17400,6 +18530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -17445,6 +18578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -17490,6 +18626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -17535,6 +18674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -17580,6 +18722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -17625,6 +18770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J382" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -17670,6 +18818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J383" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -17715,6 +18866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -17760,6 +18914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -17805,6 +18962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -17850,6 +19010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -17895,6 +19058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -17940,6 +19106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -17985,6 +19154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -18030,6 +19202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -18075,6 +19250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -18120,6 +19298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -18165,6 +19346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -18210,6 +19394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -18255,6 +19442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -18300,6 +19490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -18345,6 +19538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -18390,6 +19586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -18435,6 +19634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -18480,6 +19682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -18525,6 +19730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J402" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -18570,6 +19778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -18615,6 +19826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -18660,6 +19874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -18705,6 +19922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -18750,6 +19970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -18795,6 +20018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -18840,6 +20066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -18885,6 +20114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -18930,6 +20162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -18975,6 +20210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -19020,6 +20258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -19065,6 +20306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -19110,6 +20354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -19155,6 +20402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -19200,6 +20450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -19245,6 +20498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -19290,6 +20546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -19335,6 +20594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -19380,6 +20642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -19425,6 +20690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -19470,6 +20738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -19515,6 +20786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -19560,6 +20834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -19605,6 +20882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -19650,6 +20930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -19695,6 +20978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -19740,6 +21026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -19785,6 +21074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -19830,6 +21122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -19875,6 +21170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -19920,6 +21218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -19965,6 +21266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -20010,6 +21314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -20055,6 +21362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -20100,6 +21410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -20145,6 +21458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -20190,6 +21506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J439" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -20235,6 +21554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -20280,6 +21602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -20325,6 +21650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -20370,6 +21698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -20415,6 +21746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -20460,6 +21794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -20505,6 +21842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -20550,6 +21890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -20595,6 +21938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -20640,6 +21986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -20685,6 +22034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -20730,6 +22082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -20775,6 +22130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -20820,6 +22178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J453" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -20865,6 +22226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -20910,6 +22274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -20955,6 +22322,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -21000,6 +22370,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -21045,6 +22418,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -21090,6 +22466,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -21135,6 +22514,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J460" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -21180,6 +22562,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -21225,6 +22610,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -21270,6 +22658,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -21315,6 +22706,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -21360,6 +22754,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -21405,6 +22802,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -21450,6 +22850,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -21495,6 +22898,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -21540,6 +22946,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -21585,6 +22994,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -21630,6 +23042,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -21675,6 +23090,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -21720,6 +23138,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -21765,6 +23186,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -21810,6 +23234,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -21855,6 +23282,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J476" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -21900,6 +23330,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -21945,6 +23378,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -21990,6 +23426,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -22035,6 +23474,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -22080,6 +23522,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -22125,6 +23570,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -22170,6 +23618,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -22215,6 +23666,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -22260,6 +23714,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -22305,6 +23762,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -22350,6 +23810,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -22395,6 +23858,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -22440,6 +23906,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -22485,6 +23954,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -22530,6 +24002,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -22575,6 +24050,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -22620,6 +24098,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -22665,6 +24146,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -22710,6 +24194,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -22755,6 +24242,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -22800,6 +24290,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -22845,6 +24338,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -22890,6 +24386,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -22935,6 +24434,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -22980,6 +24482,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -23025,6 +24530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -23070,6 +24578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -23115,6 +24626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -23160,6 +24674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -23205,6 +24722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J506" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -23250,6 +24770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -23295,6 +24818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -23340,6 +24866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -23385,6 +24914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -23430,6 +24962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -23475,6 +25010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J512" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -23520,6 +25058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -23565,6 +25106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -23610,6 +25154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -23655,6 +25202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -23700,6 +25250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -23745,6 +25298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -23790,6 +25346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -23835,6 +25394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -23880,6 +25442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -23925,6 +25490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -23970,6 +25538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -24015,6 +25586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -24060,6 +25634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -24105,6 +25682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -24150,6 +25730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -24195,6 +25778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -24240,6 +25826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -24285,6 +25874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -24330,6 +25922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -24375,6 +25970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -24420,6 +26018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -24465,6 +26066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -24510,6 +26114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J535" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -24555,6 +26162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -24600,6 +26210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -24645,6 +26258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -24690,6 +26306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -24735,6 +26354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J540" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -24780,6 +26402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -24825,6 +26450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J542" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -24870,6 +26498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -24915,6 +26546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -24960,6 +26594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J545" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -25005,6 +26642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -25050,6 +26690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -25095,6 +26738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -25140,6 +26786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -25185,6 +26834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -25230,6 +26882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -25275,6 +26930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -25320,6 +26978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -25365,6 +27026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -25410,6 +27074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -25455,6 +27122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -25500,6 +27170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -25545,6 +27218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -25590,6 +27266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -25635,6 +27314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -25680,6 +27362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -25725,6 +27410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -25770,6 +27458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -25815,6 +27506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -25860,6 +27554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -25905,6 +27602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -25950,6 +27650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -25995,6 +27698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J568" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -26040,6 +27746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -26085,6 +27794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -26130,6 +27842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -26175,6 +27890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -26220,6 +27938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -26265,6 +27986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J574" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -26310,6 +28034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -26355,6 +28082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -26400,6 +28130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -26445,6 +28178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -26490,6 +28226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -26535,6 +28274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -26580,6 +28322,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -26625,6 +28370,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -26670,6 +28418,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -26715,6 +28466,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -26760,6 +28514,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -26805,6 +28562,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -26850,6 +28610,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -26895,6 +28658,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -26940,6 +28706,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -26985,6 +28754,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -27030,6 +28802,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -27075,6 +28850,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -27120,6 +28898,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -27165,6 +28946,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -27210,6 +28994,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J595" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -27255,6 +29042,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -27300,6 +29090,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -27345,6 +29138,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -27390,6 +29186,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -27435,6 +29234,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -27480,6 +29282,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -27525,6 +29330,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -27570,6 +29378,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -27615,6 +29426,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -27660,6 +29474,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -27705,6 +29522,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -27750,6 +29570,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -27795,6 +29618,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J608" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -27840,6 +29666,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J609" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -27885,6 +29714,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -27930,6 +29762,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -27975,6 +29810,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -28020,6 +29858,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -28065,6 +29906,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -28110,6 +29954,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -28155,6 +30002,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -28200,6 +30050,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -28245,6 +30098,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -28290,6 +30146,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -28335,6 +30194,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -28380,6 +30242,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -28425,6 +30290,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -28470,6 +30338,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -28515,6 +30386,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J624" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -28560,6 +30434,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -28605,6 +30482,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -28650,6 +30530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -28695,6 +30578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -28740,6 +30626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -28785,6 +30674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J630" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -28830,6 +30722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -28875,6 +30770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -28920,6 +30818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -28965,6 +30866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -29010,6 +30914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -29055,6 +30962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -29100,6 +31010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -29145,6 +31058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -29190,6 +31106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -29235,6 +31154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -29280,6 +31202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -29325,6 +31250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -29370,6 +31298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -29415,6 +31346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -29460,6 +31394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -29505,6 +31442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -29550,6 +31490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J647" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -29595,6 +31538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -29640,6 +31586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -29685,6 +31634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -29730,6 +31682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -29775,6 +31730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -29820,6 +31778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -29865,6 +31826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -29910,6 +31874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -29955,6 +31922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J656" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -30000,6 +31970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -30045,6 +32018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -30090,6 +32066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -30135,6 +32114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -30180,6 +32162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -30225,6 +32210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -30270,6 +32258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -30315,6 +32306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -30360,6 +32354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -30405,6 +32402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -30450,6 +32450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -30495,6 +32498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -30540,6 +32546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -30585,6 +32594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -30630,6 +32642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -30675,6 +32690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -30720,6 +32738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -30765,6 +32786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -30810,6 +32834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -30855,6 +32882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -30900,6 +32930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -30945,6 +32978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -30990,6 +33026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -31035,6 +33074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -31080,6 +33122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -31125,6 +33170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -31170,6 +33218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -31215,6 +33266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -31260,6 +33314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -31305,6 +33362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -31350,6 +33410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -31395,6 +33458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -31440,6 +33506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -31485,6 +33554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J690" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -31530,6 +33602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -31575,6 +33650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -31620,6 +33698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -31665,6 +33746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -31710,6 +33794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -31755,6 +33842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -31800,6 +33890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -31845,6 +33938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -31890,6 +33986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -31935,6 +34034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -31980,6 +34082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -32025,6 +34130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J702" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -32070,6 +34178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -32115,6 +34226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -32160,6 +34274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -32205,6 +34322,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -32250,6 +34370,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -32295,6 +34418,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -32340,6 +34466,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -32385,6 +34514,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -32430,6 +34562,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -32475,6 +34610,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -32520,6 +34658,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -32565,6 +34706,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J714" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -32610,6 +34754,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -32655,6 +34802,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -32700,6 +34850,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -32745,6 +34898,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -32790,6 +34946,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -32835,6 +34994,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -32880,6 +35042,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -32925,6 +35090,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -32970,6 +35138,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -33015,6 +35186,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -33060,6 +35234,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -33105,6 +35282,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -33150,6 +35330,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -33195,6 +35378,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -33240,6 +35426,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -33285,6 +35474,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -33330,6 +35522,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -33375,6 +35570,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -33420,6 +35618,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -33465,6 +35666,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -33510,6 +35714,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -33555,6 +35762,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -33600,6 +35810,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -33645,6 +35858,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -33690,6 +35906,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -33735,6 +35954,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -33780,6 +36002,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -33825,6 +36050,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -33870,6 +36098,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J743" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -33915,6 +36146,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -33960,6 +36194,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -34005,6 +36242,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -34050,6 +36290,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -34095,6 +36338,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -34140,6 +36386,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -34185,6 +36434,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -34230,6 +36482,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -34275,6 +36530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -34320,6 +36578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -34365,6 +36626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -34410,6 +36674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -34455,6 +36722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J756" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -34500,6 +36770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -34545,6 +36818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -34590,6 +36866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -34635,6 +36914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -34680,6 +36962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -34725,6 +37010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J762" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -34770,6 +37058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -34815,6 +37106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -34860,6 +37154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -34905,6 +37202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -34950,6 +37250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -34995,6 +37298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -35040,6 +37346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -35085,6 +37394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -35130,6 +37442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -35175,6 +37490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -35220,6 +37538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -35265,6 +37586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -35310,6 +37634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -35355,6 +37682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -35400,6 +37730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -35445,6 +37778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -35490,6 +37826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -35535,6 +37874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -35580,6 +37922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -35625,6 +37970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -35670,6 +38018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -35715,6 +38066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -35760,6 +38114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -35805,6 +38162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -35850,6 +38210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -35895,6 +38258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -35940,6 +38306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -35985,6 +38354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -36030,6 +38402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J791" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -36075,6 +38450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J792" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -36120,6 +38498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -36165,6 +38546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -36210,6 +38594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -36255,6 +38642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -36300,6 +38690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -36345,6 +38738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J798" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -36390,6 +38786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -36435,6 +38834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -36480,6 +38882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -36525,6 +38930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -36570,6 +38978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -36615,6 +39026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -36660,6 +39074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J805" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -36705,6 +39122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -36750,6 +39170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -36795,6 +39218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -36840,6 +39266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -36885,6 +39314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -36930,6 +39362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -36975,6 +39410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -37020,6 +39458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -37065,6 +39506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J814" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -37110,6 +39554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -37155,6 +39602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -37200,6 +39650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -37245,6 +39698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -37290,6 +39746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -37335,6 +39794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -37380,6 +39842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
@@ -37425,6 +39890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J822" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
@@ -37470,6 +39938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -37515,6 +39986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
@@ -37560,6 +40034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
@@ -37605,6 +40082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
@@ -37650,6 +40130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
@@ -37695,6 +40178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
@@ -37740,6 +40226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
@@ -37785,6 +40274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -37830,6 +40322,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
@@ -37875,6 +40370,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -37920,6 +40418,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -37965,6 +40466,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
@@ -38010,6 +40514,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -38055,6 +40562,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -38100,6 +40610,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
@@ -38145,6 +40658,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
@@ -38190,6 +40706,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
@@ -38235,6 +40754,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
@@ -38280,6 +40802,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
@@ -38325,6 +40850,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
@@ -38370,6 +40898,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -38415,6 +40946,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
@@ -38460,6 +40994,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -38505,6 +41042,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
@@ -38550,6 +41090,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -38595,6 +41138,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
@@ -38640,6 +41186,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -38685,6 +41234,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
@@ -38730,6 +41282,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -38775,6 +41330,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
@@ -38820,6 +41378,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -38865,6 +41426,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J854" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -38910,6 +41474,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -38955,6 +41522,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
@@ -39000,6 +41570,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -39045,6 +41618,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
@@ -39090,6 +41666,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
@@ -39135,6 +41714,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J860" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
@@ -39180,6 +41762,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -39225,6 +41810,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -39270,6 +41858,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
@@ -39315,6 +41906,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -39360,6 +41954,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -39405,6 +42002,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J866" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
@@ -39450,6 +42050,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -39495,6 +42098,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
@@ -39540,6 +42146,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -39585,6 +42194,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J870" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -39630,6 +42242,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J871" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -39675,6 +42290,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J872" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -39720,6 +42338,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -39765,6 +42386,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J874" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
@@ -39810,6 +42434,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
@@ -39855,6 +42482,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J876" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
@@ -39900,6 +42530,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -39945,6 +42578,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
@@ -39990,6 +42626,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
@@ -40035,6 +42674,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J880" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
@@ -40080,6 +42722,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -40125,6 +42770,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -40170,6 +42818,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -40215,6 +42866,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
@@ -40260,6 +42914,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -40305,6 +42962,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J886" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
@@ -40350,6 +43010,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -40395,6 +43058,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
@@ -40440,6 +43106,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -40485,6 +43154,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
@@ -40530,6 +43202,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
@@ -40575,6 +43250,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -40620,6 +43298,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -40665,6 +43346,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
@@ -40710,6 +43394,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J895" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -40755,6 +43442,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J896" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -40800,6 +43490,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -40845,6 +43538,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -40890,6 +43586,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
@@ -40935,6 +43634,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
@@ -40980,6 +43682,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J901" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
@@ -41025,6 +43730,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -41070,6 +43778,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
@@ -41115,6 +43826,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
@@ -41160,6 +43874,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
@@ -41205,6 +43922,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
@@ -41250,6 +43970,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
@@ -41295,6 +44018,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
@@ -41340,6 +44066,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J909" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
@@ -41385,6 +44114,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J910" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
@@ -41430,6 +44162,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J911" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
@@ -41475,6 +44210,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
@@ -41520,6 +44258,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J913" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
@@ -41565,6 +44306,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J914" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
@@ -41610,6 +44354,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J915" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
@@ -41655,6 +44402,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J916" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
@@ -41700,6 +44450,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J917" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
@@ -41745,6 +44498,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J918" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
@@ -41790,6 +44546,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J919" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -41835,6 +44594,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J920" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
@@ -41880,6 +44642,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J921" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
@@ -41925,6 +44690,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J922" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -41970,6 +44738,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J923" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
@@ -42015,6 +44786,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J924" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
@@ -42060,6 +44834,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
@@ -42105,6 +44882,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
@@ -42150,6 +44930,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
@@ -42195,6 +44978,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
@@ -42240,6 +45026,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J929" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
@@ -42285,6 +45074,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J930" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -42330,6 +45122,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J931" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -42375,6 +45170,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J932" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -42420,6 +45218,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J933" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
@@ -42465,6 +45266,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
@@ -42510,6 +45314,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
@@ -42555,6 +45362,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
@@ -42600,6 +45410,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
@@ -42645,6 +45458,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J938" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
@@ -42690,6 +45506,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J939" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
@@ -42735,6 +45554,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J940" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
@@ -42780,6 +45602,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J941" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
@@ -42825,6 +45650,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J942" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
@@ -42870,6 +45698,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J943" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
@@ -42915,6 +45746,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J944" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
@@ -42960,6 +45794,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J945" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
@@ -43005,6 +45842,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
@@ -43050,6 +45890,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
@@ -43095,6 +45938,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J948" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
@@ -43140,6 +45986,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J949" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -43185,6 +46034,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J950" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
@@ -43230,6 +46082,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
@@ -43275,6 +46130,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J952" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
@@ -43320,6 +46178,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J953" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
@@ -43365,6 +46226,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
@@ -43410,6 +46274,9 @@
           <t>Positive</t>
         </is>
       </c>
+      <c r="J955" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
@@ -43454,6 +46321,9 @@
         <is>
           <t>Positive</t>
         </is>
+      </c>
+      <c r="J956" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_cleaned.xlsx
+++ b/test_cleaned.xlsx
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -11715,7 +11715,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -44019,7 +44019,7 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909">
